--- a/PrisonersDilemma/experiment3/contest5/type_average5.xlsx
+++ b/PrisonersDilemma/experiment3/contest5/type_average5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1260" windowWidth="37780" windowHeight="20720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="session_average.csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>TFT</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,41 @@
   </si>
   <si>
     <t>total average</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSLS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TFT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALLD</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -170,7 +205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -198,20 +233,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -225,6 +267,8 @@
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -239,6 +283,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -567,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:F54"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -692,10 +738,10 @@
       <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>3.7032844162297698</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>3.6136786647171899</v>
       </c>
       <c r="E2" s="4">
@@ -796,106 +842,106 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>3.5332019484747499</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>3.6861691258420102</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>3.58984617877443</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>3.6599728950002901</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>3.9352672268514799</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>3.07487360116082</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>3.5976500033947398</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>2.4733092043501399</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>3.0664076773502198</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>3.6401384969985902</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>1.6446552760578299</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="4">
         <v>1.5771065325751701</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>3.7178352902782001</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>3.1241803155175698</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>3.78269226634113</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>3.3346382961093899</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>2.4843058854920401</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="4">
         <v>3.21790407133442</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="4">
         <v>3.41400271953699</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="4">
         <v>3.7655955412878401</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="4">
         <v>3.7988753661146002</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="4">
         <v>3.97159001606411</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="4">
         <v>1.8734783947577101</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="4">
         <v>2.8322558894645198</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="4">
         <v>1.78568857712517</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="4">
         <v>2.5705654167850001</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="4">
         <v>2.9388443002021498</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="4">
         <v>3.6610149571993702</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="4">
         <v>3.86807275907461</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="4">
         <v>3.71481585625384</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="4">
         <v>3.3881440989268601</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="4">
         <v>3.2246495667822601</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="4">
         <v>3.21790407133442</v>
       </c>
     </row>
@@ -903,106 +949,106 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>3.53792643396564</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>3.77749843469031</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>3.6165173524882102</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>3.68790911107692</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>3.94595979130774</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>3.0747486710185701</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>3.59642569366369</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>2.4190278036228401</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>3.0588401034312902</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>3.6130899746168601</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>1.7065847992335501</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="4">
         <v>1.65120132432739</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>3.7192028069375498</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>3.1701057830811799</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>3.77749843469031</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>3.2904308435671399</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>2.6520650748525201</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="4">
         <v>3.21162317480773</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="4">
         <v>3.4363408358777101</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="4">
         <v>3.7671286384327898</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="4">
         <v>3.8103786152449302</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="4">
         <v>3.98143260411622</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="4">
         <v>2.0269813397529899</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="4">
         <v>2.8697066763278598</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="4">
         <v>1.8664549056547499</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="4">
         <v>2.6284350064490898</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="4">
         <v>2.9718888508759802</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="4">
         <v>3.6620632242028601</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="4">
         <v>3.84861308264054</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="4">
         <v>3.6711141766463</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="4">
         <v>3.3650453149695498</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="4">
         <v>3.2075327688373299</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="4">
         <v>3.21162317480773</v>
       </c>
     </row>
@@ -1010,106 +1056,106 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>3.1561213484849899</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>3.1612541233712501</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>3.1611952999475399</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>3.6363795358709599</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>3.7483061609727399</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>3.4301056268446302</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>3.98071990188846</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>3.17672095138427</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>3.3788884667953898</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>3.8953168179379101</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>1.9024276703752101</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>1.6708007696846401</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>3.5011144781686201</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>2.6708373161995098</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>3.1612541233712501</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="4">
         <v>3.76808427567597</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>3.1704586454291301</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="4">
         <v>3.6540547089575699</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="4">
         <v>2.8735044060716399</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="4">
         <v>3.2722003737787899</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="4">
         <v>3.4737659504055198</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="4">
         <v>3.9829292313500999</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="4">
         <v>1.5772623745952901</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="4">
         <v>3.14977583385319</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="4">
         <v>2.21577310045756</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="4">
         <v>3.2801968056306898</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="4">
         <v>3.9179754319106799</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="4">
         <v>3.5809382704717998</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="4">
         <v>3.9866431301268399</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="4">
         <v>3.9983023880899098</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="4">
         <v>3.6970438599828102</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="4">
         <v>3.4522311408516999</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="4">
         <v>3.6540547089575699</v>
       </c>
     </row>
@@ -1224,106 +1270,106 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>3.07612642678709</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>3.5985565396700401</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>3.4982358373915998</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>3.9206000173253099</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3.6494977446758101</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>3.3461545010783502</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>3.6783317895854299</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>3.1130742091762098</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>3.2917347568408899</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>3.8246541829987302</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.9112710584593799</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <v>1.28363266282814</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>3.6329804249912798</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>2.8685334062019798</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>3.5985565396700401</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>3.59577963138738</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>2.3284039486314101</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="4">
         <v>3.57546232083638</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="4">
         <v>3.1737463143569902</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="4">
         <v>3.6090786285579499</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="4">
         <v>3.6266864034615902</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="4">
         <v>3.9806012765297498</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="4">
         <v>1.3668652984835501</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="4">
         <v>2.860914478932</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="4">
         <v>1.8018474471008299</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="4">
         <v>2.72484216290876</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="4">
         <v>3.6306915617301101</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="4">
         <v>3.5820059890295801</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="4">
         <v>3.9391134996284198</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="4">
         <v>3.8844510693998902</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="4">
         <v>3.5807848393774502</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="4">
         <v>3.3068348974286201</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="4">
         <v>3.57546232083638</v>
       </c>
     </row>
@@ -1331,106 +1377,106 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>2.8553247481925599</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>3.1458483012208398</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>3.07902633065873</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>4.0207093994085898</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>3.74787059400543</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>3.7824476325868899</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>3.95679846296246</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>2.5018461682965198</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>3.0499888083808799</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>3.7148612581924798</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>2.0443850453703099</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>2.0728703638907802</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>3.4575529735961998</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="4">
         <v>2.94835107260108</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <v>3.1458483012208398</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="4">
         <v>3.3789862937712201</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="4">
         <v>2.8084446011822202</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="4">
         <v>3.14763814146403</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="4">
         <v>3.0378361548075601</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="4">
         <v>3.2386167968963302</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="4">
         <v>3.6442208600927501</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="4">
         <v>3.9977967826504699</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="4">
         <v>2.0632530390801298</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="4">
         <v>3.22027394119285</v>
       </c>
-      <c r="AA8" s="2">
+      <c r="AA8" s="4">
         <v>2.41268857514669</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="4">
         <v>2.8204799826773401</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AC8" s="4">
         <v>3.4759962956510599</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="4">
         <v>3.5417595818400298</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="4">
         <v>3.99415526052793</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="4">
         <v>4.0659820547263301</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="4">
         <v>3.4390388516683799</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AH8" s="4">
         <v>3.47636734427424</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AI8" s="4">
         <v>3.14763814146403</v>
       </c>
     </row>
@@ -1438,106 +1484,106 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>3.1699214459521601</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>3.0959435585717499</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>3.0279007584955799</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <v>3.9914670786942201</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>3.6546324370223</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>3.6272769493939401</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>3.4158290202578399</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>3.1869604140758399</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>3.3633210082044802</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>3.8712868591662399</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>2.0175553225366398</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="4">
         <v>1.5351992134793999</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>3.2783919411967202</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>2.6896071451962502</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>3.0959435585717499</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="4">
         <v>3.75512176558001</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>2.6824446762580401</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="4">
         <v>3.6558899583421001</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="4">
         <v>2.8577618224710699</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="4">
         <v>3.1459418912544699</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="4">
         <v>3.1994492860843899</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="4">
         <v>3.9817015981539501</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="4">
         <v>1.49563596696907</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="4">
         <v>3.13452377506185</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="4">
         <v>2.3435893352107602</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="4">
         <v>3.5400904659190999</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AC9" s="4">
         <v>3.9355280716263001</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="4">
         <v>3.3547495424893299</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="4">
         <v>3.97951819432103</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="4">
         <v>3.9878542311013798</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="4">
         <v>3.6926449034206699</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="4">
         <v>3.4851240318644798</v>
       </c>
-      <c r="AI9" s="2">
+      <c r="AI9" s="4">
         <v>3.6558899583421001</v>
       </c>
     </row>
@@ -1545,106 +1591,106 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>2.51493233527051</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>2.7606612838860798</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>2.6599003613424799</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>4.0730571777167404</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>3.8020869612638002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>3.9377473883668301</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>2.8700279040868901</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>4.07762200429661</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>2.8742591289082502</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>3.7018675106133001</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>2.1252227878447898</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="4">
         <v>2.2776748168891698</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>3.4352371963482198</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="4">
         <v>2.8860075337148299</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="4">
         <v>2.7606612838860798</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="4">
         <v>3.4257223342299299</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="4">
         <v>2.3414458302179901</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="4">
         <v>2.7976953794321</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="4">
         <v>2.8202458992327499</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="4">
         <v>2.90285895165428</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="4">
         <v>3.5544824647206399</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="4">
         <v>4.0637711715576401</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="4">
         <v>2.3690967338461202</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="4">
         <v>3.1020692370200802</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="4">
         <v>2.1163184378950599</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="4">
         <v>2.0986738501503899</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="4">
         <v>3.5556264856388702</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="4">
         <v>3.49469715213265</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="4">
         <v>4.0657696496428297</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="4">
         <v>4.1341679704860299</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG10" s="4">
         <v>3.3843970201857201</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AH10" s="4">
         <v>3.5642637318664399</v>
       </c>
-      <c r="AI10" s="2">
+      <c r="AI10" s="4">
         <v>2.7976953794321</v>
       </c>
     </row>
@@ -1652,106 +1698,106 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>2.8392072122223699</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>3.1345649528868398</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>3.0615223445450699</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>4.0274322047232696</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>3.7732251704291802</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>3.7639438390214202</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>3.0669657186193899</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>3.9478589250529801</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>2.5029690838383098</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>3.7123298681788302</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>2.0300953088130198</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <v>2.0517646618454402</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="4">
         <v>3.4265572875737398</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="4">
         <v>2.9503395907706902</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="4">
         <v>3.1345649528868398</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="4">
         <v>3.3639599011785801</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="4">
         <v>2.7833406850740499</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="4">
         <v>3.1329203281679101</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="4">
         <v>3.0344091382927001</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="4">
         <v>3.2104389149397101</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="4">
         <v>3.6114408365577901</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="4">
         <v>4.0062886313402002</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="4">
         <v>2.0565648142068298</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="4">
         <v>3.1777350847223098</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AA11" s="4">
         <v>2.3899558438193802</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="4">
         <v>2.7623706661999101</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="4">
         <v>3.46494899047071</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AD11" s="4">
         <v>3.5372301985998398</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="4">
         <v>4.00082771124847</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="4">
         <v>4.0736779938584498</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11" s="4">
         <v>3.4246678114816702</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AH11" s="4">
         <v>3.4799345814657898</v>
       </c>
-      <c r="AI11" s="2">
+      <c r="AI11" s="4">
         <v>3.1329203281679101</v>
       </c>
     </row>
@@ -1759,106 +1805,106 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>3.1312447860883701</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>3.10021730879888</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>3.04778161068554</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>4.00928215368622</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>3.5642761806522998</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>3.81877466058745</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>3.3335886259912599</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>3.9775033291117898</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>2.9974822844703399</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>3.28479998699687</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>1.95983783532568</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>1.9715033341428201</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <v>3.5386511085077799</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="4">
         <v>2.7162645732069599</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="4">
         <v>3.10021730879888</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="4">
         <v>3.6259875690821599</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="4">
         <v>2.8255847373964702</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="4">
         <v>3.4968633217359599</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="4">
         <v>2.86180463369922</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V12" s="4">
         <v>3.2112337233890602</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="4">
         <v>3.6258537730704199</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="4">
         <v>3.9518371246304498</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="4">
         <v>1.5245335849386099</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="4">
         <v>3.3279576415268299</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AA12" s="4">
         <v>2.3848486844089298</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12" s="4">
         <v>3.23387863349592</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="4">
         <v>3.8148225669731302</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="4">
         <v>3.5756132055281502</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="4">
         <v>3.9687978046561398</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="4">
         <v>4.0169497559496303</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12" s="4">
         <v>3.6061068331944601</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AH12" s="4">
         <v>3.4865880929947002</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AI12" s="4">
         <v>3.4968633217359599</v>
       </c>
     </row>
@@ -1866,106 +1912,106 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>2.8890034200225498</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>3.3469391702031999</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>3.24249057270602</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>4.0558663351609701</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>4.0697943605345399</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>3.4705552628460201</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>2.7846848515200899</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>3.8009667604407702</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>2.2178627063269398</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>2.8164283665283798</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <v>3.3610599288630301</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="4">
         <v>2.3590203548550202</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>3.24984078048861</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>3.32616620032374</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>3.3469391702031999</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="4">
         <v>2.8653452384502298</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>2.78090384294046</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="4">
         <v>2.68379996767028</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="4">
         <v>3.3218380495680999</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="4">
         <v>3.31417712010203</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="4">
         <v>3.2751662231015399</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="4">
         <v>4.06997135537046</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="4">
         <v>2.8838720267153102</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="4">
         <v>2.9527565881042199</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="4">
         <v>2.27496365069329</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="4">
         <v>2.3608006586088099</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AC13" s="4">
         <v>3.2968972708451498</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AD13" s="4">
         <v>3.3829883619848902</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AE13" s="4">
         <v>4.1104494817993702</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="4">
         <v>3.88320821311952</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG13" s="4">
         <v>3.07951653714056</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="4">
         <v>3.4487206863159301</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AI13" s="4">
         <v>2.68379996767028</v>
       </c>
     </row>
@@ -1973,106 +2019,106 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>3.4482646320580499</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>3.6009824435586699</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>3.4914275448232401</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>3.4786911670116498</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>4.1238560005426903</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>4.0594433272964201</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>2.8456942106341701</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>3.6820935013195202</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>2.263906936703</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>2.8751513079152602</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>3.02763732032439</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>2.2401387088714202</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="4">
         <v>3.6550344414411802</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <v>3.51815377801706</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <v>3.6009824435586699</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="4">
         <v>2.8645641756122502</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="4">
         <v>2.98851100723282</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="4">
         <v>2.7223961233829801</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="4">
         <v>3.5740964630320899</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="4">
         <v>3.62441089364401</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="4">
         <v>3.9449523202042398</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="4">
         <v>4.1242390054687998</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="4">
         <v>2.7504565695703498</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="4">
         <v>3.0178620898613802</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="4">
         <v>2.3911960438359898</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="4">
         <v>2.53674406852332</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="4">
         <v>2.8029167191840201</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="4">
         <v>3.6835640840884101</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="4">
         <v>3.5896028042532899</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14" s="4">
         <v>3.1401546318477598</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14" s="4">
         <v>3.0296581011014698</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH14" s="4">
         <v>2.9615649155646202</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="4">
         <v>2.7223961233829801</v>
       </c>
     </row>
@@ -2080,106 +2126,106 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>3.3207210436089598</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>3.6868834302505098</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>3.5893130087226801</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>3.8254916603489502</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>3.69282128979735</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>3.9289606824690901</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>3.2331756358658299</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>3.6092169427808298</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>2.8598531133049399</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="4">
         <v>3.1860961885752901</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <v>3.73603592102008</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>1.8889277260714199</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <v>1.5478424177546199</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>3.0653851248779098</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>3.6868834302505098</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="4">
         <v>3.4758328039376298</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>2.5744600109717899</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="4">
         <v>3.44735833288243</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="4">
         <v>3.3048637543907202</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="4">
         <v>3.6735494661008201</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="4">
         <v>3.7375482280743899</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="4">
         <v>3.9871177096955801</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="4">
         <v>1.89605177968389</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="4">
         <v>2.9148698865855001</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="4">
         <v>1.86822702719542</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="4">
         <v>2.72928862690013</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15" s="4">
         <v>3.3590876550870301</v>
       </c>
-      <c r="AD15" s="2">
+      <c r="AD15" s="4">
         <v>3.6283397734078302</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AE15" s="4">
         <v>3.89202907073917</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="4">
         <v>3.7956290096895602</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15" s="4">
         <v>3.4888257191979202</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="4">
         <v>3.28341631033584</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15" s="4">
         <v>3.44735833288243</v>
       </c>
     </row>
@@ -2187,106 +2233,106 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>3.1107823396802998</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>3.57787461567986</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>3.42779479987728</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>3.7035616666981901</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>3.8851912393200299</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>3.8905246093152002</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>3.0336288196018102</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>3.60894461177462</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>2.5204865093241202</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <v>3.0187189073580498</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <v>3.5788746869165902</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>1.7608942099995699</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <v>1.6056579318114499</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>3.4601107283112</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>3.57787461567986</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="4">
         <v>3.2057577282721801</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>2.1530760849567399</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="4">
         <v>3.0785743738975899</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="4">
         <v>3.3269560182495201</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="4">
         <v>3.5557434928013998</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="4">
         <v>3.6530512343698001</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="4">
         <v>4.0221152776354998</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="4">
         <v>1.95199457064913</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="4">
         <v>2.5559195401506098</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="4">
         <v>1.9296878974828999</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="4">
         <v>2.07410336723555</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC16" s="4">
         <v>2.9246216702061898</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="4">
         <v>3.4258421130021102</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AE16" s="4">
         <v>3.8813526613844598</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16" s="4">
         <v>3.8366559774578399</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AG16" s="4">
         <v>3.2556342862032901</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="4">
         <v>3.2319870246756399</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AI16" s="4">
         <v>3.0785743738975899</v>
       </c>
     </row>
@@ -2294,106 +2340,106 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>3.5332019484747499</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>3.78269226634113</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>3.6861691258420102</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>3.58984617877443</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>3.6599728950002901</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>3.9352672268514799</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="4">
         <v>3.07487360116082</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>3.5976500033947398</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>2.4733092043501399</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>3.0664076773502198</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>3.6401384969985902</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>1.6446552760578299</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <v>1.5771065325751701</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>3.7178352902782001</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>3.1241803155175698</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>3.3346382961093899</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>2.4843058854920401</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="4">
         <v>3.21790407133442</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="4">
         <v>3.41400271953699</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="4">
         <v>3.7655955412878401</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="4">
         <v>3.7988753661146002</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="4">
         <v>3.97159001606411</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="4">
         <v>1.8734783947577101</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="4">
         <v>2.8322558894645198</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="4">
         <v>1.78568857712517</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="4">
         <v>2.5705654167850001</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="4">
         <v>2.9388443002021498</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="4">
         <v>3.6610149571993702</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="4">
         <v>3.86807275907461</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="4">
         <v>3.71481585625384</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="4">
         <v>3.3881440989268601</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="4">
         <v>3.2246495667822601</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="4">
         <v>3.21790407133442</v>
       </c>
     </row>
@@ -2401,106 +2447,106 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>3.2559201038154799</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>3.2484150099023399</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>3.1839257168521402</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>3.9616922552644001</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>3.6822687387843702</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>3.70539913299783</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>3.23479047881633</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>3.9630324759537201</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>2.8564320341961702</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="4">
         <v>3.1992525373645999</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="4">
         <v>3.7060426552304202</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>2.15933336012858</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4">
         <v>2.0802187639509202</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="4">
         <v>3.4992945105653201</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="4">
         <v>2.9084028301267901</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="4">
         <v>3.2484150099023399</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="4">
         <v>0</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="4">
         <v>2.9863527902689202</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="4">
         <v>3.3675617067249801</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="4">
         <v>3.0380132641184301</v>
       </c>
-      <c r="V18" s="2">
+      <c r="V18" s="4">
         <v>3.33376375126474</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="4">
         <v>3.40142661855745</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="4">
         <v>3.9776989101252398</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="4">
         <v>1.95993994293694</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="4">
         <v>3.2861050488980199</v>
       </c>
-      <c r="AA18" s="2">
+      <c r="AA18" s="4">
         <v>2.41784297583634</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AB18" s="4">
         <v>3.1995391903233998</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18" s="4">
         <v>3.6021161895026199</v>
       </c>
-      <c r="AD18" s="2">
+      <c r="AD18" s="4">
         <v>3.6140823335505701</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AE18" s="4">
         <v>3.9362105891147201</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="4">
         <v>3.99912319067393</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AG18" s="4">
         <v>3.5506164769474098</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AH18" s="4">
         <v>3.4146263199341602</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AI18" s="4">
         <v>3.3675617067249801</v>
       </c>
     </row>
@@ -2508,106 +2554,106 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>3.4886084379581002</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>3.6895406435544</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>3.60486191756452</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>3.8597219784185999</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>3.9385800343707902</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>4.0013893218090102</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>3.0262632438009498</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>3.58350609415481</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>2.2838567028001102</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <v>3.02687479015913</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <v>3.4616354116174</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>1.98112195857995</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="4">
         <v>1.98542082345907</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>3.7304693719942499</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>3.4032324842688602</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>3.6895406435544</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="4">
         <v>3.2145197048902201</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="4">
         <v>3.1043933123971601</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="4">
         <v>3.5252836660613398</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="4">
         <v>3.6970006953993302</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="4">
         <v>3.9229331552328399</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="4">
         <v>4.0468028415825197</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="4">
         <v>2.8654984514842501</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="4">
         <v>3.1185994150360399</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="4">
         <v>2.1170001986746301</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="4">
         <v>2.8055277195352</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19" s="4">
         <v>3.00964785944582</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19" s="4">
         <v>3.7207859399396499</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19" s="4">
         <v>3.7584600372963801</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="4">
         <v>3.4103081762230198</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19" s="4">
         <v>3.2788032708605299</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="4">
         <v>3.1884877639917502</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AI19" s="4">
         <v>3.1043933123971601</v>
       </c>
     </row>
@@ -2615,106 +2661,106 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>3.0744979706544102</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>3.24062141116395</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>3.1996753823074902</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>3.98747621480311</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>3.6307849896816702</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>3.8294514416585499</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>3.09089886246479</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <v>3.9816110577658499</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>2.4597570707933198</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="4">
         <v>3.07043066886594</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <v>3.6949886216533798</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="4">
         <v>2.0901160725980699</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="4">
         <v>2.16283074602564</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="4">
         <v>3.5973223152257701</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="4">
         <v>2.9407004738576501</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="4">
         <v>3.24062141116395</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="4">
         <v>3.4252992269748699</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="4">
         <v>2.97000714205651</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="4">
         <v>0</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="4">
         <v>3.05679859853706</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="4">
         <v>3.3488325624944801</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="4">
         <v>3.7907500076122398</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="4">
         <v>3.9419741781241302</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="4">
         <v>2.0812575434057901</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="4">
         <v>3.3839824903441</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="4">
         <v>2.4783796223165</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20" s="4">
         <v>3.08649867368224</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="4">
         <v>3.4218542466250299</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="4">
         <v>3.6557797052722698</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20" s="4">
         <v>3.9603392868850902</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="4">
         <v>4.0220607293959398</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20" s="4">
         <v>3.5245243080199802</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AH20" s="4">
         <v>3.4801644625685801</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AI20" s="4">
         <v>3.2254440763310801</v>
       </c>
     </row>
@@ -2722,106 +2768,106 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>3.3240377927653402</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>3.6958741489562499</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>3.5799968955359902</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>3.6243379106899698</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>3.7873347274235298</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>3.9213966626055399</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="4">
         <v>3.0591374190822598</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>3.5833217127162098</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="4">
         <v>2.5001331611677999</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="4">
         <v>3.0412431919026899</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="4">
         <v>3.6036409449579301</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.7128380676356501</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="4">
         <v>1.58399311705985</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>3.59349738481506</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>3.15468215638196</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>3.6958741489562499</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="4">
         <v>3.24164212129361</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>2.25577770563102</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="4">
         <v>3.1291333117300599</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="4">
         <v>0</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="4">
         <v>3.6835752662431802</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="4">
         <v>3.7343099611975199</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="4">
         <v>3.9989867049791998</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="4">
         <v>1.9289061056190699</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="4">
         <v>2.6364506731847999</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="4">
         <v>1.86965272193929</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="4">
         <v>2.2720753617993199</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AC21" s="4">
         <v>2.8850854993018</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="4">
         <v>3.5334831890435798</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="4">
         <v>3.8578922724761902</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="4">
         <v>3.7701949011349698</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21" s="4">
         <v>3.3290700812465901</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="4">
         <v>3.2107520941394898</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AI21" s="4">
         <v>3.1291333117300599</v>
       </c>
     </row>
@@ -2829,106 +2875,106 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>3.48365136572626</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>3.76381506904309</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>3.67700512399957</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>3.6716554801524302</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>3.6732029555008299</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>3.9389065815399</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="4">
         <v>3.1459314972819099</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>3.6117725316825302</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="4">
         <v>2.55693783514173</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="4">
         <v>3.1084697705696298</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="4">
         <v>3.6777963167935401</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>1.7157780997607099</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="4">
         <v>1.5636360483123299</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>3.7046663468180299</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>3.12339131347919</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>3.76381506904309</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="4">
         <v>3.4007741067722899</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>2.5509232304107599</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="4">
         <v>3.3002198644221301</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="4">
         <v>3.3970580208527199</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="4">
         <v>0</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="4">
         <v>3.7880294117565398</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="4">
         <v>3.9808405411351</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y22" s="4">
         <v>1.88504488592002</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22" s="4">
         <v>2.8492062251500299</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA22" s="4">
         <v>1.8368737025539399</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="4">
         <v>2.6611039686798601</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AC22" s="4">
         <v>3.09846730385568</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="4">
         <v>3.6566934075430901</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22" s="4">
         <v>3.86715668281045</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="4">
         <v>3.74133836559158</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG22" s="4">
         <v>3.4118983068421</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="4">
         <v>3.22623343730573</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AI22" s="4">
         <v>3.3002198644221301</v>
       </c>
     </row>
@@ -2936,106 +2982,106 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>3.4538690895753699</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>3.76507129772977</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>3.6340849277053802</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>3.8684204795009101</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>3.6566385598253999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>3.9273153058010601</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="4">
         <v>3.2977350790739099</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>3.5467237645755398</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="4">
         <v>2.9465572040960102</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="4">
         <v>3.2488156314791001</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <v>3.7606047602950898</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>1.90528003330878</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="4">
         <v>1.3477932814781299</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>3.6399033518258301</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>3.0554142122071601</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>3.76507129772977</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="4">
         <v>3.4226498450589098</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>2.2595596347974398</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="4">
         <v>3.55236921703762</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="4">
         <v>3.3722660873998702</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="4">
         <v>3.7340666518963501</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="4">
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="4">
         <v>3.9724187758227201</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="4">
         <v>1.82595075565624</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="4">
         <v>2.6910984385215699</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="4">
         <v>1.65103979599981</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="4">
         <v>2.4323517717184302</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC23" s="4">
         <v>3.3649838657561699</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="4">
         <v>3.55935903182879</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE23" s="4">
         <v>3.8908840603369401</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="4">
         <v>3.8161207488782698</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AG23" s="4">
         <v>3.4813026467908501</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="4">
         <v>3.2388515244260598</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AI23" s="4">
         <v>3.55236921703762</v>
       </c>
     </row>
@@ -3043,106 +3089,106 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>2.8727338216262899</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>3.5484168614451601</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.4424410218951298</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>3.9911112845804899</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>3.63906792596425</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>3.83483633820848</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="4">
         <v>3.42635470012954</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>3.9726029301304102</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="4">
         <v>3.1750271877229399</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="4">
         <v>3.37110103885523</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <v>3.8875563060899498</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>1.87459107609189</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="4">
         <v>1.24043554404655</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>3.5835964605885602</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>2.7472918820899199</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>3.5484168614451601</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="4">
         <v>3.7650765353076499</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>2.3030144250137701</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="4">
         <v>3.6276510478739801</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="4">
         <v>3.0695461536500699</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="4">
         <v>3.5584331442058401</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="4">
         <v>3.57836423406857</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="4">
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="4">
         <v>1.27942686332424</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="4">
         <v>3.0112008618131898</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="4">
         <v>2.04883039507168</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="4">
         <v>3.04453173651389</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24" s="4">
         <v>3.94174645118136</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD24" s="4">
         <v>3.5652163287577099</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="4">
         <v>3.9827024533719602</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="4">
         <v>3.9999819730320598</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AG24" s="4">
         <v>3.71479879114727</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="4">
         <v>3.36127694940794</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AI24" s="4">
         <v>3.6276510478739801</v>
       </c>
     </row>
@@ -3150,106 +3196,106 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>3.3139068913294998</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>3.6521667973876499</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>3.3575951072330099</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>3.3423441554478899</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>4.1487602575420697</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>4.06899246668572</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="4">
         <v>2.7509723160467501</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>3.4095969271012199</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="4">
         <v>2.3155848610872001</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="4">
         <v>2.7736105373440099</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <v>3.3770750090256501</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>1.67005090688925</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="4">
         <v>1.8401597802107601</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>3.3460507347797299</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>3.42823764139025</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>3.6521667973876499</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="4">
         <v>2.8321314133453299</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.7532203110367399</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="4">
         <v>2.67414602178131</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="4">
         <v>3.5232559719002801</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="4">
         <v>3.5778945444822798</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="4">
         <v>3.6893100056422998</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="4">
         <v>4.1493960060866302</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="4">
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="4">
         <v>2.0381513461161802</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="4">
         <v>1.61843111687819</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="4">
         <v>1.5890510466499299</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC25" s="4">
         <v>2.1672074631490998</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25" s="4">
         <v>3.3215632762796301</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="4">
         <v>3.81574288696478</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="4">
         <v>3.6287549478378698</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25" s="4">
         <v>3.0089521313662901</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="4">
         <v>3.0801500251118599</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AI25" s="4">
         <v>2.67414602178131</v>
       </c>
     </row>
@@ -3257,106 +3303,106 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>3.1195328305860399</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>3.50923607641817</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>3.4109233759550399</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>4.0004890858688702</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>3.9320981123348302</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>3.8212542459811001</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="4">
         <v>3.1290432359890001</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>3.7467333334989901</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="4">
         <v>2.6473334076328001</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <v>3.0978858844002102</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="4">
         <v>3.7093854320171999</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>1.9658351978556099</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="4">
         <v>1.96888863646416</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>3.5431984398899998</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>3.2033318044489301</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>3.50923607641817</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="4">
         <v>3.3788570168818599</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>2.9923677885300202</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="4">
         <v>3.3325175172089399</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="4">
         <v>3.3175583989182398</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="4">
         <v>3.51072611916844</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="4">
         <v>3.6952670620863399</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="4">
         <v>4.0694526227888499</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="4">
         <v>2.7624374234612201</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="4">
         <v>0</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="4">
         <v>2.3176772594649999</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="4">
         <v>2.95421403037466</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC26" s="4">
         <v>3.47565392745306</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="4">
         <v>3.55965532612516</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26" s="4">
         <v>4.0035859648412702</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="4">
         <v>3.98427855903617</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26" s="4">
         <v>3.4139447060066201</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="4">
         <v>3.4646486284601301</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="4">
         <v>3.3325175172089399</v>
       </c>
     </row>
@@ -3364,106 +3410,106 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>2.7085011914705199</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>3.24814052070804</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>3.1330138900464601</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>3.9491447335971799</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>4.1622029664792697</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>3.75523017506382</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="4">
         <v>2.8763285702062298</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>3.8445523188133501</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="4">
         <v>2.2168980960726001</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="4">
         <v>2.8891708121245001</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="4">
         <v>3.4046739116075102</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>2.2394755312564101</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="4">
         <v>2.2583154648786499</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>3.3696791701973701</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>3.2740611778666699</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>3.24814052070804</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="4">
         <v>3.0258164433277002</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>2.6827419769791998</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="4">
         <v>2.8492186992816499</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="4">
         <v>3.2429304579456799</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="4">
         <v>3.24622782737428</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="4">
         <v>3.5260053903609601</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="4">
         <v>4.1641625085849698</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="4">
         <v>2.9191920947549499</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="4">
         <v>2.7991380421358398</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="4">
         <v>0</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="4">
         <v>2.26372974302393</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="4">
         <v>3.3726879677261499</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD27" s="4">
         <v>3.4038606134128102</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27" s="4">
         <v>3.96295721448308</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="4">
         <v>3.8228306994628798</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AG27" s="4">
         <v>3.1554310559319498</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="4">
         <v>3.5382087251390399</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI27" s="4">
         <v>2.8492186992816499</v>
       </c>
     </row>
@@ -3471,106 +3517,106 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>3.4326077399015098</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>3.6108359469134901</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>3.5195839033534502</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>3.8177393488871099</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>3.8320043481785699</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>3.9066823434007198</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="4">
         <v>3.06038390012939</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>3.98476629625821</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="4">
         <v>2.2113699046151298</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="4">
         <v>3.0450798036723699</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="4">
         <v>3.5390253823463702</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>2.2398761199152299</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="4">
         <v>2.28659878259873</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>3.66039970540879</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>3.40237547068506</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>3.6108359469134901</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="4">
         <v>3.3651026127033599</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>3.1826005928691998</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="4">
         <v>3.18987354170434</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U28" s="4">
         <v>3.47566328634118</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28" s="4">
         <v>3.6127857409551498</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="4">
         <v>3.8305245726046899</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="4">
         <v>4.0145274753565099</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="4">
         <v>2.9529047484869402</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="4">
         <v>3.2881796472293199</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="4">
         <v>2.3978977959284702</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="4">
         <v>0</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28" s="4">
         <v>3.47468963071901</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28" s="4">
         <v>3.6803071919145198</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="4">
         <v>3.8402724486223199</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="4">
         <v>3.7603382661571301</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AG28" s="4">
         <v>3.4724120065319499</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="4">
         <v>3.2667165280224499</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AI28" s="4">
         <v>3.18987354170434</v>
       </c>
     </row>
@@ -3578,106 +3624,106 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>3.2955913424011398</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>3.49900056181527</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>3.4379336752952399</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>3.97360229948556</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>3.63954594815625</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>3.6624808680628398</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="4">
         <v>3.2653719806374601</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <v>3.9852355711868999</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="4">
         <v>2.9104345988363902</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="4">
         <v>3.2353636561875598</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="4">
         <v>3.8176710939024199</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="4">
         <v>2.0952695029556598</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="4">
         <v>2.1213170682364</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="4">
         <v>3.4543647846538899</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="4">
         <v>3.0284549235328799</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="4">
         <v>3.49900056181527</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="4">
         <v>3.5519741907189002</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="4">
         <v>3.11852101545194</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="4">
         <v>3.36041249887105</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="4">
         <v>3.21767866919016</v>
       </c>
-      <c r="V29" s="2">
+      <c r="V29" s="4">
         <v>3.4883842287817801</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W29" s="4">
         <v>3.3458831207809698</v>
       </c>
-      <c r="X29" s="2">
+      <c r="X29" s="4">
         <v>3.97973837498798</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Y29" s="4">
         <v>2.5086015745860801</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29" s="4">
         <v>3.24064003503271</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="4">
         <v>2.4063360501434898</v>
       </c>
-      <c r="AB29" s="2">
+      <c r="AB29" s="4">
         <v>3.3377874441349702</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AC29" s="4">
         <v>0</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="4">
         <v>3.6257485095292501</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE29" s="4">
         <v>3.9741101414485702</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29" s="4">
         <v>3.9769014360705199</v>
       </c>
-      <c r="AG29" s="2">
+      <c r="AG29" s="4">
         <v>3.5819535707432801</v>
       </c>
-      <c r="AH29" s="2">
+      <c r="AH29" s="4">
         <v>3.5065565442056101</v>
       </c>
-      <c r="AI29" s="2">
+      <c r="AI29" s="4">
         <v>3.36041249887105</v>
       </c>
     </row>
@@ -3685,106 +3731,106 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>3.2695330426906501</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>3.5966579372698502</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>3.4985392834540798</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>3.8718727422121</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>3.7109444449142401</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <v>3.8938621884793401</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="4">
         <v>3.2680489479091199</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <v>3.6398506869022902</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>2.8875443716054199</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="4">
         <v>3.23050493117388</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="4">
         <v>3.7430163784373498</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="4">
         <v>1.9305138975585301</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="4">
         <v>1.52854992119188</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="4">
         <v>3.6175263887718301</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="4">
         <v>3.00950939500783</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="4">
         <v>3.5966579372698502</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="4">
         <v>3.56399225011508</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="4">
         <v>2.7984259063823198</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="4">
         <v>3.47850523608138</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="4">
         <v>3.25639692181996</v>
       </c>
-      <c r="V30" s="2">
+      <c r="V30" s="4">
         <v>3.6057870631504398</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="4">
         <v>3.6738042054123898</v>
       </c>
-      <c r="X30" s="2">
+      <c r="X30" s="4">
         <v>3.9899625616026202</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Y30" s="4">
         <v>1.8328312743131701</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="Z30" s="4">
         <v>2.9222736065585901</v>
       </c>
-      <c r="AA30" s="2">
+      <c r="AA30" s="4">
         <v>1.91992455078726</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AB30" s="4">
         <v>2.8013442893194598</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AC30" s="4">
         <v>3.5549906577872101</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AD30" s="4">
         <v>0</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AE30" s="4">
         <v>3.9039877454312601</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF30" s="4">
         <v>3.8233669311098</v>
       </c>
-      <c r="AG30" s="2">
+      <c r="AG30" s="4">
         <v>3.5164273642501902</v>
       </c>
-      <c r="AH30" s="2">
+      <c r="AH30" s="4">
         <v>3.2828650207777601</v>
       </c>
-      <c r="AI30" s="2">
+      <c r="AI30" s="4">
         <v>3.47850523608138</v>
       </c>
     </row>
@@ -3792,106 +3838,106 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>3.0104203946165802</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>3.2585256400679499</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>3.1657993275430001</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <v>3.9921979792633202</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>3.6408705615376702</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <v>3.8037194374020098</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="4">
         <v>3.43284122723328</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <v>3.97764967522604</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="4">
         <v>3.19247677841709</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="4">
         <v>3.37700046973921</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="4">
         <v>3.89514034665258</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="4">
         <v>1.9199109916535899</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="4">
         <v>1.59685967819022</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="4">
         <v>3.5363031414477302</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="4">
         <v>2.6927971264927701</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="4">
         <v>3.2585256400679499</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="4">
         <v>3.7595638395535702</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="4">
         <v>2.82517336206877</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="4">
         <v>3.65647622499255</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="4">
         <v>2.8715215262573102</v>
       </c>
-      <c r="V31" s="2">
+      <c r="V31" s="4">
         <v>3.2996038790308599</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="4">
         <v>3.54926090254235</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="4">
         <v>3.9866604294814798</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="4">
         <v>1.2667313026384801</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="4">
         <v>3.10989485709809</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="4">
         <v>2.2049225788118001</v>
       </c>
-      <c r="AB31" s="2">
+      <c r="AB31" s="4">
         <v>3.25454624161355</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AC31" s="4">
         <v>3.9340365101742201</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31" s="4">
         <v>3.5674542160743998</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AE31" s="4">
         <v>0</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AF31" s="4">
         <v>3.9977155169695702</v>
       </c>
-      <c r="AG31" s="2">
+      <c r="AG31" s="4">
         <v>3.6873294691985001</v>
       </c>
-      <c r="AH31" s="2">
+      <c r="AH31" s="4">
         <v>3.4293000757566401</v>
       </c>
-      <c r="AI31" s="2">
+      <c r="AI31" s="4">
         <v>3.65647622499255</v>
       </c>
     </row>
@@ -3899,106 +3945,106 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>3.2234313368270802</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>3.05490817164354</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>3.0428738035466698</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>3.9978841567140901</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>3.6277947243194602</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>3.5658537350218502</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="4">
         <v>3.45424515832168</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>3.9836495489299102</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="4">
         <v>3.2183182439160398</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="4">
         <v>3.3990266826792199</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="4">
         <v>3.8940718493000701</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>1.98960224818412</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="4">
         <v>1.89649179312724</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>3.3221120983502002</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>2.59389176797725</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>3.05490817164354</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="4">
         <v>3.77724888593495</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>2.8468627050464499</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="4">
         <v>3.6792258859357201</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="4">
         <v>2.7798520598673702</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="4">
         <v>3.14747764419872</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="4">
         <v>3.1420740157498499</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="4">
         <v>3.9802058341438999</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="4">
         <v>1.3197730386942199</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="4">
         <v>3.1255324141516199</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="4">
         <v>2.3359269187723601</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="4">
         <v>3.40178038592502</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AC32" s="4">
         <v>3.9349401029872801</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32" s="4">
         <v>3.4870568712822898</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AE32" s="4">
         <v>3.9853030557123401</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="4">
         <v>0</v>
       </c>
-      <c r="AG32" s="2">
+      <c r="AG32" s="4">
         <v>3.6736097705426198</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="4">
         <v>3.5027797806701901</v>
       </c>
-      <c r="AI32" s="2">
+      <c r="AI32" s="4">
         <v>3.6792258859357201</v>
       </c>
     </row>
@@ -4006,106 +4052,106 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>3.2494750697993098</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>3.20708935153786</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <v>3.1491621576892501</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <v>3.9307989309337898</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>3.6800495545180798</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <v>3.7104008058973998</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="4">
         <v>3.2457124210107402</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <v>3.9447910331270299</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="4">
         <v>2.8395024501202801</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="4">
         <v>3.21041604119968</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="4">
         <v>3.7008969428699898</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="4">
         <v>2.1215917394611199</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="4">
         <v>1.9666913384290401</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="4">
         <v>3.4210312533903799</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="4">
         <v>2.87511021400754</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="4">
         <v>3.20708935153786</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="4">
         <v>3.5455896904568101</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="4">
         <v>2.9035507145254802</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="4">
         <v>3.4154747747358698</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="4">
         <v>2.9984398353988602</v>
       </c>
-      <c r="V33" s="2">
+      <c r="V33" s="4">
         <v>3.2417912153841102</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="4">
         <v>3.4484523941195699</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X33" s="4">
         <v>3.9760979778230898</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y33" s="4">
         <v>1.8089789587004801</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="4">
         <v>3.22701907113585</v>
       </c>
-      <c r="AA33" s="2">
+      <c r="AA33" s="4">
         <v>2.37462979878286</v>
       </c>
-      <c r="AB33" s="2">
+      <c r="AB33" s="4">
         <v>3.2486438956336001</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AC33" s="4">
         <v>3.63446845443455</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33" s="4">
         <v>3.524347955219</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AE33" s="4">
         <v>3.9238545084817398</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AF33" s="4">
         <v>3.8904234278900902</v>
       </c>
-      <c r="AG33" s="2">
+      <c r="AG33" s="4">
         <v>0</v>
       </c>
-      <c r="AH33" s="2">
+      <c r="AH33" s="4">
         <v>3.4067143312363899</v>
       </c>
-      <c r="AI33" s="2">
+      <c r="AI33" s="4">
         <v>3.4154747747358698</v>
       </c>
     </row>
@@ -4113,106 +4159,106 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>3.0798727969061499</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>3.1693819433509698</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <v>3.07895012643066</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>3.9063114954812601</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>3.7783252505972</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <v>3.8125544586731599</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="4">
         <v>3.2526515438672798</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>3.8710506827967599</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="4">
         <v>2.91415741627435</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="4">
         <v>3.2186769655299399</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="4">
         <v>3.6914386850498699</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="4">
         <v>2.0305043091679602</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="4">
         <v>2.01555160398267</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="4">
         <v>3.4928075758885599</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="4">
         <v>2.8896757358052998</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="4">
         <v>3.1693819433509698</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="4">
         <v>3.4724319612799701</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S34" s="4">
         <v>2.8529547121880801</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="4">
         <v>3.3895344059180998</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U34" s="4">
         <v>2.96989757564956</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="4">
         <v>3.2293868787953701</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="4">
         <v>3.5947233247250501</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="4">
         <v>4.0260596379297198</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="4">
         <v>1.76237146360178</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="4">
         <v>3.12207526128749</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="4">
         <v>2.41991241886703</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="4">
         <v>3.0898398072978299</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AC34" s="4">
         <v>3.68754733120887</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34" s="4">
         <v>3.5428466075006302</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE34" s="4">
         <v>3.91643265226939</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="4">
         <v>3.8320611947355698</v>
       </c>
-      <c r="AG34" s="2">
+      <c r="AG34" s="4">
         <v>3.5057368971242999</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="4">
         <v>0</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AI34" s="4">
         <v>3.3895344059180998</v>
       </c>
     </row>
@@ -4220,107 +4266,118 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>3.0744979706544102</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>3.24062141116395</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <v>3.1996753823074902</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>3.98747621480311</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="4">
         <v>3.6307849896816702</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <v>3.8294514416585499</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="4">
         <v>3.09089886246479</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <v>3.9816110577658499</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="4">
         <v>2.4597570707933198</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="4">
         <v>3.07043066886594</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="4">
         <v>3.6949886216533798</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="4">
         <v>2.0901160725980699</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="4">
         <v>2.16283074602564</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="4">
         <v>3.5973223152257701</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="4">
         <v>2.9407004738576501</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="4">
         <v>3.24062141116395</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="4">
         <v>3.4252992269748699</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="4">
         <v>2.97000714205651</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="4">
         <v>3.2254440763310801</v>
       </c>
-      <c r="U35" s="2">
+      <c r="U35" s="4">
         <v>3.05679859853706</v>
       </c>
-      <c r="V35" s="2">
+      <c r="V35" s="4">
         <v>3.3488325624944801</v>
       </c>
-      <c r="W35" s="2">
+      <c r="W35" s="4">
         <v>3.7907500076122398</v>
       </c>
-      <c r="X35" s="2">
+      <c r="X35" s="4">
         <v>3.9419741781241302</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Y35" s="4">
         <v>2.0812575434057901</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="4">
         <v>3.3839824903441</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AA35" s="4">
         <v>2.4783796223165</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AB35" s="4">
         <v>3.08649867368224</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AC35" s="4">
         <v>3.4218542466250299</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35" s="4">
         <v>3.6557797052722698</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AE35" s="4">
         <v>3.9603392868850902</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AF35" s="4">
         <v>4.0220607293959398</v>
       </c>
-      <c r="AG35" s="2">
+      <c r="AG35" s="4">
         <v>3.5245243080199802</v>
       </c>
-      <c r="AH35" s="2">
+      <c r="AH35" s="4">
         <v>3.4801644625685801</v>
       </c>
-      <c r="AI35" s="2">
+      <c r="AI35" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5133,16 +5190,16 @@
       </c>
     </row>
     <row r="46" spans="1:35">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:35">
       <c r="B47" s="4" t="s">
@@ -5160,9 +5217,10 @@
       <c r="F47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="G47" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="4" t="s">
@@ -5193,7 +5251,7 @@
         <v>3.2039235104046973</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
@@ -5222,7 +5280,7 @@
         <v>3.2548830209799227</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
         <v>2</v>
       </c>
@@ -5251,7 +5309,7 @@
         <v>3.223658906177763</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
@@ -5280,7 +5338,7 @@
         <v>3.2036214980072848</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -5309,361 +5367,470 @@
         <v>3.2771458463067176</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="5" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4">
+        <f>SUM(B48:B52)</f>
+        <v>984.73894301466737</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" ref="C53:F53" si="5">SUM(C48:C52)</f>
+        <v>1218.0589806081696</v>
+      </c>
+      <c r="D53" s="4">
+        <f>SUM(D48:D52)</f>
+        <v>59.710494554349523</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="5"/>
+        <v>863.66759696913914</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="5"/>
+        <v>499.77768807797918</v>
+      </c>
+      <c r="G53" s="4">
+        <f>SUM(B53:F53)/33/34</f>
+        <v>3.2316877925350314</v>
+      </c>
+      <c r="H53" s="4">
+        <f>(H48*9+H49*11+H50+H51*8+H52*5)/34</f>
+        <v>3.2316877925350309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="4" t="s">
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="4">
-        <f>I$56*I56-1</f>
+      <c r="B57" s="4">
+        <f>H$57*H57-1</f>
         <v>80</v>
       </c>
-      <c r="C56" s="4">
-        <f>I$57*I56</f>
+      <c r="C57" s="4">
+        <f>H$58*H57</f>
         <v>99</v>
       </c>
-      <c r="D56" s="4">
-        <f>I$58*I56</f>
+      <c r="D57" s="4">
+        <f>H$59*H57</f>
         <v>9</v>
       </c>
-      <c r="E56" s="4">
-        <f>I$59*I56</f>
+      <c r="E57" s="4">
+        <f>H$60*H57</f>
         <v>72</v>
       </c>
-      <c r="F56" s="4">
-        <f>I$60*I56</f>
+      <c r="F57" s="4">
+        <f>H$61*H57</f>
         <v>45</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="4">
+      <c r="H57" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="4">
-        <f t="shared" ref="B57:B59" si="5">I$56*I57</f>
+      <c r="B58" s="4">
+        <f>H$57*H58</f>
         <v>99</v>
       </c>
-      <c r="C57" s="4">
-        <f>I$57*I57-1</f>
+      <c r="C58" s="4">
+        <f>H$58*H58-1</f>
         <v>120</v>
       </c>
-      <c r="D57" s="4">
-        <f t="shared" ref="D57:D60" si="6">I$58*I57</f>
+      <c r="D58" s="4">
+        <f>H$59*H58</f>
         <v>11</v>
       </c>
-      <c r="E57" s="4">
-        <f t="shared" ref="E57:E60" si="7">I$59*I57</f>
+      <c r="E58" s="4">
+        <f>H$60*H58</f>
         <v>88</v>
       </c>
-      <c r="F57" s="4">
-        <f t="shared" ref="F57:F59" si="8">I$60*I57</f>
+      <c r="F58" s="4">
+        <f>H$61*H58</f>
         <v>55</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I57" s="4">
+      <c r="H58" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="4">
-        <f t="shared" si="5"/>
+      <c r="B59" s="4">
+        <f>H$57*H59</f>
         <v>9</v>
       </c>
-      <c r="C58" s="4">
-        <f t="shared" ref="C58:C60" si="9">I$57*I58</f>
+      <c r="C59" s="4">
+        <f>H$58*H59</f>
         <v>11</v>
       </c>
-      <c r="D58" s="4">
-        <f>I$58*I58-1</f>
+      <c r="D59" s="4">
+        <f>H$59*H59-1</f>
         <v>0</v>
       </c>
-      <c r="E58" s="4">
-        <f t="shared" si="7"/>
+      <c r="E59" s="4">
+        <f>H$60*H59</f>
         <v>8</v>
       </c>
-      <c r="F58" s="4">
-        <f t="shared" si="8"/>
+      <c r="F59" s="4">
+        <f>H$61*H59</f>
         <v>5</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="4">
+      <c r="H59" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="4">
-        <f t="shared" si="5"/>
+      <c r="B60" s="4">
+        <f>H$57*H60</f>
         <v>72</v>
       </c>
-      <c r="C59" s="4">
-        <f t="shared" si="9"/>
+      <c r="C60" s="4">
+        <f>H$58*H60</f>
         <v>88</v>
       </c>
-      <c r="D59" s="4">
-        <f t="shared" si="6"/>
+      <c r="D60" s="4">
+        <f>H$59*H60</f>
         <v>8</v>
       </c>
-      <c r="E59" s="4">
-        <f>I$59*I59-1</f>
+      <c r="E60" s="4">
+        <f>H$60*H60-1</f>
         <v>63</v>
       </c>
-      <c r="F59" s="4">
-        <f t="shared" si="8"/>
+      <c r="F60" s="4">
+        <f>H$61*H60</f>
         <v>40</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="4">
+      <c r="H60" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="4">
-        <f>I$56*I60</f>
+      <c r="B61" s="4">
+        <f>H$57*H61</f>
         <v>45</v>
       </c>
-      <c r="C60" s="4">
-        <f t="shared" si="9"/>
+      <c r="C61" s="4">
+        <f>H$58*H61</f>
         <v>55</v>
       </c>
-      <c r="D60" s="4">
-        <f t="shared" si="6"/>
+      <c r="D61" s="4">
+        <f>H$59*H61</f>
         <v>5</v>
       </c>
-      <c r="E60" s="4">
-        <f t="shared" si="7"/>
+      <c r="E61" s="4">
+        <f>H$60*H61</f>
         <v>40</v>
       </c>
-      <c r="F60" s="4">
-        <f>I$60*I60-1</f>
+      <c r="F61" s="4">
+        <f>H$61*H61-1</f>
         <v>24</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="4">
+      <c r="H61" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="4">
+        <f>SUM(B57:B61)</f>
+        <v>305</v>
+      </c>
+      <c r="C62" s="4">
+        <f>SUM(C57:C61)</f>
+        <v>373</v>
+      </c>
+      <c r="D62" s="4">
+        <f>SUM(D57:D61)</f>
+        <v>33</v>
+      </c>
+      <c r="E62" s="4">
+        <f>SUM(E57:E61)</f>
+        <v>271</v>
+      </c>
+      <c r="F62" s="4">
+        <f>SUM(F57:F61)</f>
+        <v>169</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="4">
+        <f>SUM(H57:H61)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G65" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4">
-        <f>B48/B56</f>
-        <v>3.121197699038234</v>
-      </c>
-      <c r="C64" s="4">
-        <f t="shared" ref="C64:F64" si="10">C48/C56</f>
-        <v>3.2941845133587804</v>
-      </c>
-      <c r="D64" s="4">
-        <f t="shared" si="10"/>
-        <v>1.5972885989670209</v>
-      </c>
-      <c r="E64" s="4">
-        <f t="shared" si="10"/>
-        <v>3.2410823452605317</v>
-      </c>
-      <c r="F64" s="4">
-        <f t="shared" si="10"/>
-        <v>2.8447038576701256</v>
-      </c>
-      <c r="G64" s="4">
-        <v>3.2039235104046973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="4">
-        <f t="shared" ref="B65:F65" si="11">B49/B57</f>
-        <v>3.2179172631046775</v>
-      </c>
-      <c r="C65" s="4">
-        <f t="shared" si="11"/>
-        <v>3.1359761686727521</v>
-      </c>
-      <c r="D65" s="4">
-        <f t="shared" si="11"/>
-        <v>1.9993737671652683</v>
-      </c>
-      <c r="E65" s="4">
-        <f t="shared" si="11"/>
-        <v>3.2808190840860707</v>
-      </c>
-      <c r="F65" s="4">
-        <f t="shared" si="11"/>
-        <v>3.1986617543495721</v>
-      </c>
-      <c r="G65" s="4">
-        <v>3.2548830209799227</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" ref="B66:F66" si="12">B50/B58</f>
-        <v>3.5681158158449069</v>
+        <f t="shared" ref="B66:F67" si="6">B48/B57</f>
+        <v>3.121197699038234</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="12"/>
-        <v>2.9479534460529284</v>
+        <f t="shared" si="6"/>
+        <v>3.2941845133587804</v>
+      </c>
+      <c r="D66" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5972885989670209</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="12"/>
-        <v>3.47408648813084</v>
+        <f t="shared" si="6"/>
+        <v>3.2410823452605317</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="12"/>
-        <v>2.8095043499266139</v>
+        <f t="shared" si="6"/>
+        <v>2.8447038576701256</v>
       </c>
       <c r="G66" s="4">
-        <v>3.223658906177763</v>
+        <f>H48</f>
+        <v>3.2039235104046973</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" ref="B67:F67" si="13">B51/B59</f>
-        <v>3.2817053279827095</v>
+        <f t="shared" si="6"/>
+        <v>3.2179172631046775</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="13"/>
-        <v>3.3849067317041492</v>
+        <f t="shared" si="6"/>
+        <v>3.1359761686727521</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="13"/>
-        <v>1.6144924304721173</v>
+        <f t="shared" si="6"/>
+        <v>1.9993737671652683</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="13"/>
-        <v>2.8504957125016555</v>
+        <f t="shared" si="6"/>
+        <v>3.2808190840860707</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="13"/>
-        <v>2.9776082534455446</v>
+        <f t="shared" si="6"/>
+        <v>3.1986617543495721</v>
       </c>
       <c r="G67" s="4">
-        <v>3.2036214980072848</v>
+        <f t="shared" ref="G67:G71" si="7">H49</f>
+        <v>3.2548830209799227</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" ref="B68:C70" si="8">B50/B59</f>
+        <v>3.5681158158449069</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="8"/>
+        <v>2.9479534460529284</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" ref="E68:F70" si="9">E50/E59</f>
+        <v>3.47408648813084</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="9"/>
+        <v>2.8095043499266139</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="7"/>
+        <v>3.223658906177763</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" si="8"/>
+        <v>3.2817053279827095</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="8"/>
+        <v>3.3849067317041492</v>
+      </c>
+      <c r="D69" s="4">
+        <f>D51/D60</f>
+        <v>1.6144924304721173</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="9"/>
+        <v>2.8504957125016555</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="9"/>
+        <v>2.9776082534455446</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="7"/>
+        <v>3.2036214980072848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="4">
-        <f t="shared" ref="B68:F68" si="14">B52/B60</f>
+      <c r="B70" s="4">
+        <f t="shared" si="8"/>
         <v>3.290522046375254</v>
       </c>
-      <c r="C68" s="4">
-        <f t="shared" si="14"/>
+      <c r="C70" s="4">
+        <f t="shared" si="8"/>
         <v>3.3694235136067769</v>
       </c>
-      <c r="D68" s="4">
-        <f t="shared" si="14"/>
+      <c r="D70" s="4">
+        <f>D52/D61</f>
         <v>2.0851692562102899</v>
       </c>
-      <c r="E68" s="4">
-        <f t="shared" si="14"/>
+      <c r="E70" s="4">
+        <f t="shared" si="9"/>
         <v>3.3555916729538908</v>
       </c>
-      <c r="F68" s="4">
-        <f t="shared" si="14"/>
+      <c r="F70" s="4">
+        <f t="shared" si="9"/>
         <v>2.6119902544225884</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G70" s="4">
+        <f t="shared" si="7"/>
         <v>3.2771458463067176</v>
       </c>
     </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4">
+        <f>B53/B62</f>
+        <v>3.2286522721792372</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" ref="C71:F71" si="10">C53/C62</f>
+        <v>3.2655736745527335</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="10"/>
+        <v>1.8094089258893795</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="10"/>
+        <v>3.1869653024691482</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="10"/>
+        <v>2.9572644264969181</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="7"/>
+        <v>3.2316877925350309</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G55:H56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
